--- a/new-stats/sk-austria-klagenfurt.xlsx
+++ b/new-stats/sk-austria-klagenfurt.xlsx
@@ -2108,22 +2108,62 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11</v>
+      </c>
+      <c r="N30" t="n">
+        <v>20</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>

--- a/new-stats/sk-austria-klagenfurt.xlsx
+++ b/new-stats/sk-austria-klagenfurt.xlsx
@@ -2166,22 +2166,62 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M31" t="n">
+        <v>19</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>

--- a/new-stats/sk-austria-klagenfurt.xlsx
+++ b/new-stats/sk-austria-klagenfurt.xlsx
@@ -2224,22 +2224,62 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>

--- a/new-stats/sk-austria-klagenfurt.xlsx
+++ b/new-stats/sk-austria-klagenfurt.xlsx
@@ -2282,22 +2282,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>12</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/sk-austria-klagenfurt.xlsx
+++ b/new-stats/sk-austria-klagenfurt.xlsx
@@ -516,22 +516,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A. Salzburg</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
